--- a/APIDocument/API.xlsx
+++ b/APIDocument/API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimjiseob/Desktop/jeeseob/Project/graduationProject/Backend-SpringBoot/APIDocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimjiseob/Desktop/jeeseob/Project/teamProject/graduationProject/Backend-SpringBoot/APIDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47495EE-8F66-0F4A-8115-12DF2CF21800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7BC6BD-4CD2-FE49-A940-D3ACCADC00E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{6E4BF4BA-F9A5-2548-B2A9-5FE4ECE95ECD}"/>
   </bookViews>
@@ -35,16 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>url 주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data 형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +198,34 @@
   </si>
   <si>
     <t>권한 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formerData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인/api/formerData/temperatureList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request : {"startDate" : YYYY-mm-dd, "endDate" : YYYY-mm-dd}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>response : ListResult {"date" : YYYY-mm=dd, "maxTemperature" : double, "minTemperature" : double,"averageTEmperature" : double }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data 형식(Response)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data 형식(Request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 데이터(온도) List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,11 +288,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E8CC2C-833E-F043-B0D7-65D9046F678F}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -595,263 +619,304 @@
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="6" max="6" width="116.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
